--- a/acooly-component-security/src/main/resources/static/manage/data/import_user_template.xlsx
+++ b/acooly-component-security/src/main/resources/static/manage/data/import_user_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpu/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpu/workspace/acooly/acooly-components-feature4/acooly-component-security/src/main/resources/static/manage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E610EB35-AB9F-754A-93C4-27B45454ABF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,8 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4DD2481C-F0FE-3246-9B88-DEDA678090FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="DengXian"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Acooly</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：可选，如果填写，请在角色模块建好角色后，这里填入对应的角色名称。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>acooly1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,12 +146,46 @@
   <si>
     <t>123460@Z</t>
   </si>
+  <si>
+    <t>ROLE_SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色
+（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱
+（必选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机
+（必选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名
+（必选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码
+（必选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名
+（必选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +207,20 @@
       <color theme="10"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,9 +246,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -176,6 +262,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -443,111 +532,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="34">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26" customHeight="1">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>13798788781</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" ht="26" customHeight="1">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>13798788782</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" ht="26" customHeight="1">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>13798788783</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" ht="26" customHeight="1">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>13798788784</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" ht="26" customHeight="1">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>13798788785</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="E2:E5" r:id="rId2" display="customer1@acooly.cn"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3:E6" r:id="rId2" display="customer1@acooly.cn" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>